--- a/Registro de treinamentos.xlsx
+++ b/Registro de treinamentos.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Redes com embeddings sem pré-treino" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Redes com embedding pré-treinado NILC" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Redes com embedding pré-treinado acórdãos" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="58">
   <si>
     <t xml:space="preserve">Melhor val_cat_acc</t>
   </si>
@@ -117,6 +118,15 @@
   </si>
   <si>
     <t xml:space="preserve">Regressão Logística</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipamento utilizado:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Core i5-7400 3GHz x 4 núcleos; memória 16 GB; GPU GeForce GTX 1070 (1920 núcleos, 8 GB VRAM); HD 1 TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sistema operacional 64 bits Ubuntu 18.04.3 LTS, GNOME 3.28.2</t>
   </si>
   <si>
     <t xml:space="preserve">Embedding treinada fixa + densa 2048 + 1024 + dropout .6</t>
@@ -192,16 +202,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -219,70 +231,18 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -290,9 +250,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,54 +262,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -356,23 +275,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -396,42 +300,25 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,78 +330,69 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -526,7 +404,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -542,7 +420,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -569,10 +447,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1140,15 +1018,44 @@
       <c r="A35" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="5" t="n">
-        <v>0.87</v>
-      </c>
+      <c r="E35" s="12" t="n">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D30:F30"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1165,15 +1072,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.96"/>
@@ -1214,7 +1121,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1238,7 +1145,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1262,7 +1169,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1286,7 +1193,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1310,7 +1217,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1321,7 +1228,7 @@
       <c r="D7" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="14" t="n">
         <v>0.6748</v>
       </c>
       <c r="F7" s="0" t="n">
@@ -1334,7 +1241,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1358,7 +1265,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>26</v>
@@ -1382,7 +1289,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>26</v>
@@ -1406,7 +1313,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>26</v>
@@ -1430,7 +1337,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>26</v>
@@ -1441,7 +1348,7 @@
       <c r="D12" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="15" t="n">
         <v>0.8573</v>
       </c>
       <c r="F12" s="0" t="n">
@@ -1454,7 +1361,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>26</v>
@@ -1478,7 +1385,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>26</v>
@@ -1489,7 +1396,7 @@
       <c r="D14" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="15" t="n">
         <v>0.8532</v>
       </c>
       <c r="F14" s="0" t="n">
@@ -1502,7 +1409,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>26</v>
@@ -1513,7 +1420,7 @@
       <c r="D15" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="15" t="n">
         <v>0.8547</v>
       </c>
       <c r="F15" s="0" t="n">
@@ -1526,7 +1433,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>26</v>
@@ -1550,7 +1457,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>26</v>
@@ -1574,7 +1481,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>26</v>
@@ -1585,7 +1492,7 @@
       <c r="D18" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="15" t="n">
         <v>0.8554</v>
       </c>
       <c r="F18" s="0" t="n">
@@ -1598,7 +1505,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>26</v>
@@ -1622,7 +1529,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>26</v>
@@ -1646,7 +1553,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>26</v>
@@ -1657,7 +1564,7 @@
       <c r="D21" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="15" t="n">
         <v>0.8573</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1670,7 +1577,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>26</v>
@@ -1681,7 +1588,7 @@
       <c r="D22" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E22" s="14" t="n">
+      <c r="E22" s="16" t="n">
         <v>0.8603</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -1694,7 +1601,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>26</v>
@@ -1705,7 +1612,7 @@
       <c r="D23" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E23" s="14" t="n">
+      <c r="E23" s="16" t="n">
         <v>0.8629</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -1718,7 +1625,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>13</v>
@@ -1742,7 +1649,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>9</v>
@@ -1766,7 +1673,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>26</v>
@@ -1790,7 +1697,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>26</v>
@@ -1801,7 +1708,7 @@
       <c r="D27" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="15" t="n">
         <v>0.8584</v>
       </c>
       <c r="F27" s="0" t="n">
@@ -1856,22 +1763,796 @@
       <c r="A34" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="5" t="n">
-        <v>0.87</v>
-      </c>
+      <c r="E34" s="12" t="n">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ38"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0.7075</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <f aca="false">TIME( , ,F3*C3)</f>
+        <v>0.00393518518518518</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6962</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <f aca="false">TIME( , ,F4*C4)</f>
+        <v>0.00393518518518518</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.7007</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <f aca="false">TIME( , ,F5*C5)</f>
+        <v>0.0037037037037037</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.7112</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <f aca="false">TIME( , ,F6*C6)</f>
+        <v>0.00416666666666667</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>0.6921</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <f aca="false">TIME( , ,F7*C7)</f>
+        <v>0.00416666666666667</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <f aca="false">TIME( , ,F8*C8)</f>
+        <v>0.00416666666666667</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <f aca="false">TIME( , ,F9*C9)</f>
+        <v>0.0122685185185185</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>0.8607</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <f aca="false">TIME( , ,F10*C10)</f>
+        <v>0.0131944444444444</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <f aca="false">TIME( , ,F11*C11)</f>
+        <v>0.00532407407407407</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>0.8543</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <f aca="false">TIME( , ,F12*C12)</f>
+        <v>0.0168981481481482</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.6782</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <f aca="false">TIME( , ,F13*C13)</f>
+        <v>0.00833333333333333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E14" s="16" t="n">
+        <v>0.8629</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <f aca="false">TIME( , ,F14*C14)</f>
+        <v>0.0233796296296296</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>0.8569</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <f aca="false">TIME( , ,F15*C15)</f>
+        <v>0.0287037037037037</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>0.8581</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <f aca="false">TIME( , ,F16*C16)</f>
+        <v>0.0127314814814815</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.8359</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <f aca="false">TIME( , ,F17*C17)</f>
+        <v>0.0127314814814815</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>0.8581</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <f aca="false">TIME( , ,F18*C18)</f>
+        <v>0.012962962962963</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E19" s="16" t="n">
+        <v>0.8618</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <f aca="false">TIME( , ,F19*C19)</f>
+        <v>0.012962962962963</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>0.8577</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <f aca="false">TIME( , ,F20*C20)</f>
+        <v>0.0131944444444444</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>0.8588</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <f aca="false">TIME( , ,F21*C21)</f>
+        <v>0.0131944444444444</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <v>0.8697</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <f aca="false">TIME( , ,F22*C22)</f>
+        <v>0.0148148148148148</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E23" s="16" t="n">
+        <v>0.8693</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <f aca="false">TIME( , ,F23*C23)</f>
+        <v>0.0148148148148148</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E24" s="16" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <f aca="false">TIME( , ,F24*C24)</f>
+        <v>0.012962962962963</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <v>0.8539</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <f aca="false">TIME( , ,F25*C25)</f>
+        <v>0.012962962962963</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E26" s="16" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <f aca="false">TIME( , ,F26*C26)</f>
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <v>0.8689</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <f aca="false">TIME( , ,F27*C27)</f>
+        <v>0.0148148148148148</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <v>0.8535</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <f aca="false">TIME( , ,F28*C28)</f>
+        <v>0.00648148148148148</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="6" t="n">
+        <f aca="false">SUM(G3:G28)</f>
+        <v>0.311805555555556</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="12" t="n">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Registro de treinamentos.xlsx
+++ b/Registro de treinamentos.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Redes com embeddings sem pré-treino" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Redes com embedding pré-treinado NILC" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Redes com embedding pré-treinado acórdãos" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Comparação embeddings GRU" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="88">
   <si>
     <t xml:space="preserve">Melhor val_cat_acc</t>
   </si>
@@ -196,17 +197,111 @@
   </si>
   <si>
     <t xml:space="preserve">Embedding treinada variável + GRU 256  + dropout .1 + recorrente .5 + densa 128  + dropout .4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estratégia embeddings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pré-treino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nenhum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NILC-USP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acórdãos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Representatividade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pesos ajustáveis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enunciados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scores F1 globais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desvio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">macro avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weighted avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scores F1 por classe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licitação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsabilidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direito Processual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrato Administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convênio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competência    do TCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão Administrativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finanças Públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desestatização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método empregado:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-validation com 10 folds, sobre todos os dados. GRU de 256 níveis. Melhor de 20 épocas. Média e desvio padrão entre os folds.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="HH:MM:SS"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0"/>
+    <numFmt numFmtId="170" formatCode="0.00%"/>
+    <numFmt numFmtId="171" formatCode="0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -267,12 +362,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -301,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,7 +456,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,6 +470,70 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1075,12 +1241,12 @@
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.96"/>
@@ -1819,13 +1985,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.96"/>
@@ -1902,7 +2068,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6962</v>
+        <v>0.7078</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>17</v>
@@ -1926,7 +2092,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7007</v>
+        <v>0.7157</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>16</v>
@@ -1950,7 +2116,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7112</v>
+        <v>0.7214</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>18</v>
@@ -1974,7 +2140,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.6921</v>
+        <v>0.7146</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>18</v>
@@ -1998,7 +2164,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.694</v>
+        <v>0.721</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>18</v>
@@ -2022,7 +2188,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.852</v>
+        <v>0.8558</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>53</v>
@@ -2031,6 +2197,7 @@
         <f aca="false">TIME( , ,F9*C9)</f>
         <v>0.0122685185185185</v>
       </c>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2046,7 +2213,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.8607</v>
+        <v>0.8674</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>57</v>
@@ -2070,7 +2237,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.668</v>
+        <v>0.6831</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>23</v>
@@ -2093,8 +2260,8 @@
       <c r="D12" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E12" s="15" t="n">
-        <v>0.8543</v>
+      <c r="E12" s="16" t="n">
+        <v>0.8637</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>73</v>
@@ -2117,8 +2284,8 @@
       <c r="D13" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>0.6782</v>
+      <c r="E13" s="5" t="n">
+        <v>0.662</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>36</v>
@@ -2142,7 +2309,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="16" t="n">
-        <v>0.8629</v>
+        <v>0.8689</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>101</v>
@@ -2165,8 +2332,8 @@
       <c r="D15" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E15" s="15" t="n">
-        <v>0.8569</v>
+      <c r="E15" s="16" t="n">
+        <v>0.8633</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>124</v>
@@ -2189,8 +2356,8 @@
       <c r="D16" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E16" s="15" t="n">
-        <v>0.8581</v>
+      <c r="E16" s="7" t="n">
+        <v>0.8487</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>55</v>
@@ -2213,8 +2380,8 @@
       <c r="D17" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>0.8359</v>
+      <c r="E17" s="7" t="n">
+        <v>0.8385</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>55</v>
@@ -2237,8 +2404,8 @@
       <c r="D18" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E18" s="15" t="n">
-        <v>0.8581</v>
+      <c r="E18" s="16" t="n">
+        <v>0.8659</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>56</v>
@@ -2261,8 +2428,8 @@
       <c r="D19" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E19" s="16" t="n">
-        <v>0.8618</v>
+      <c r="E19" s="15" t="n">
+        <v>0.8569</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>56</v>
@@ -2286,7 +2453,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="15" t="n">
-        <v>0.8577</v>
+        <v>0.8551</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>57</v>
@@ -2310,7 +2477,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="15" t="n">
-        <v>0.8588</v>
+        <v>0.8558</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>57</v>
@@ -2333,8 +2500,8 @@
       <c r="D22" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E22" s="16" t="n">
-        <v>0.8697</v>
+      <c r="E22" s="18" t="n">
+        <v>0.8716</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>64</v>
@@ -2357,8 +2524,8 @@
       <c r="D23" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E23" s="16" t="n">
-        <v>0.8693</v>
+      <c r="E23" s="18" t="n">
+        <v>0.8727</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>64</v>
@@ -2381,8 +2548,8 @@
       <c r="D24" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E24" s="16" t="n">
-        <v>0.8611</v>
+      <c r="E24" s="15" t="n">
+        <v>0.8588</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>56</v>
@@ -2406,7 +2573,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="15" t="n">
-        <v>0.8539</v>
+        <v>0.8592</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>56</v>
@@ -2430,7 +2597,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="16" t="n">
-        <v>0.8611</v>
+        <v>0.8573</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>108</v>
@@ -2454,7 +2621,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="16" t="n">
-        <v>0.8689</v>
+        <v>0.8603</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>64</v>
@@ -2477,8 +2644,8 @@
       <c r="D28" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="E28" s="15" t="n">
-        <v>0.8535</v>
+      <c r="E28" s="16" t="n">
+        <v>0.8607</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>28</v>
@@ -2555,4 +2722,1062 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K39"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="19" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="J1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="25" t="n">
+        <v>0.866887041060595</v>
+      </c>
+      <c r="E3" s="25" t="n">
+        <v>0.875751766041022</v>
+      </c>
+      <c r="F3" s="25" t="n">
+        <v>0.897310947310947</v>
+      </c>
+      <c r="G3" s="25" t="n">
+        <v>0.894156609652477</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>0.898213371147256</v>
+      </c>
+      <c r="J3" s="26" t="n">
+        <v>13312</v>
+      </c>
+      <c r="K3" s="27" t="n">
+        <f aca="false">J3/J$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="25" t="n">
+        <v>0.00481341902522489</v>
+      </c>
+      <c r="E4" s="25" t="n">
+        <v>0.00775002693201751</v>
+      </c>
+      <c r="F4" s="25" t="n">
+        <v>0.00687261340397671</v>
+      </c>
+      <c r="G4" s="25" t="n">
+        <v>0.00574946724430513</v>
+      </c>
+      <c r="H4" s="25" t="n">
+        <v>0.00617328665624986</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="25" t="n">
+        <v>0.768929329580567</v>
+      </c>
+      <c r="E5" s="25" t="n">
+        <v>0.801845902899238</v>
+      </c>
+      <c r="F5" s="25" t="n">
+        <v>0.836833611073291</v>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>0.825328473619385</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>0.838557094614807</v>
+      </c>
+      <c r="J5" s="26" t="n">
+        <v>13312</v>
+      </c>
+      <c r="K5" s="27" t="n">
+        <f aca="false">J5/J$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>0.0256383885114278</v>
+      </c>
+      <c r="E6" s="25" t="n">
+        <v>0.0226760871488387</v>
+      </c>
+      <c r="F6" s="25" t="n">
+        <v>0.0164299721576833</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>0.01984103443073</v>
+      </c>
+      <c r="H6" s="25" t="n">
+        <v>0.0209678581762149</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="25" t="n">
+        <v>0.864933106159886</v>
+      </c>
+      <c r="E7" s="25" t="n">
+        <v>0.874367947651146</v>
+      </c>
+      <c r="F7" s="25" t="n">
+        <v>0.896757428532716</v>
+      </c>
+      <c r="G7" s="25" t="n">
+        <v>0.892948565258904</v>
+      </c>
+      <c r="H7" s="25" t="n">
+        <v>0.897404710234131</v>
+      </c>
+      <c r="J7" s="26" t="n">
+        <v>13312</v>
+      </c>
+      <c r="K7" s="27" t="n">
+        <f aca="false">J7/J$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>0.00548944315427741</v>
+      </c>
+      <c r="E8" s="25" t="n">
+        <v>0.00786060587216337</v>
+      </c>
+      <c r="F8" s="25" t="n">
+        <v>0.00694065065396696</v>
+      </c>
+      <c r="G8" s="25" t="n">
+        <v>0.0059137635049987</v>
+      </c>
+      <c r="H8" s="25" t="n">
+        <v>0.00623427477024036</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="25" t="n">
+        <v>0.955620032516578</v>
+      </c>
+      <c r="E9" s="25" t="n">
+        <v>0.956987788164922</v>
+      </c>
+      <c r="F9" s="25" t="n">
+        <v>0.970883121997566</v>
+      </c>
+      <c r="G9" s="25" t="n">
+        <v>0.967814087729582</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>0.969913668281635</v>
+      </c>
+      <c r="J9" s="26" t="n">
+        <v>3396</v>
+      </c>
+      <c r="K9" s="27" t="n">
+        <f aca="false">J9/J$3</f>
+        <v>0.255108173076923</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>0.00684948219963658</v>
+      </c>
+      <c r="E10" s="25" t="n">
+        <v>0.00748908710896959</v>
+      </c>
+      <c r="F10" s="25" t="n">
+        <v>0.00483652748395331</v>
+      </c>
+      <c r="G10" s="25" t="n">
+        <v>0.00761371537989037</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>0.00777529885396114</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="25" t="n">
+        <v>0.906700728985434</v>
+      </c>
+      <c r="E11" s="25" t="n">
+        <v>0.903933087583982</v>
+      </c>
+      <c r="F11" s="25" t="n">
+        <v>0.923774038777231</v>
+      </c>
+      <c r="G11" s="25" t="n">
+        <v>0.919319645212883</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>0.92372563585671</v>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>2765</v>
+      </c>
+      <c r="K11" s="27" t="n">
+        <f aca="false">J11/J$3</f>
+        <v>0.207707331730769</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>0.0137762229481305</v>
+      </c>
+      <c r="E12" s="25" t="n">
+        <v>0.0123551663951733</v>
+      </c>
+      <c r="F12" s="25" t="n">
+        <v>0.0128773767170302</v>
+      </c>
+      <c r="G12" s="25" t="n">
+        <v>0.0161423633649944</v>
+      </c>
+      <c r="H12" s="25" t="n">
+        <v>0.016115387519132</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>0.85746657573316</v>
+      </c>
+      <c r="E13" s="25" t="n">
+        <v>0.863168794558845</v>
+      </c>
+      <c r="F13" s="25" t="n">
+        <v>0.886134594430241</v>
+      </c>
+      <c r="G13" s="25" t="n">
+        <v>0.883952150624263</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>0.888006263877481</v>
+      </c>
+      <c r="J13" s="26" t="n">
+        <v>2347</v>
+      </c>
+      <c r="K13" s="27" t="n">
+        <f aca="false">J13/J$3</f>
+        <v>0.176307091346154</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>0.0192745866784497</v>
+      </c>
+      <c r="E14" s="25" t="n">
+        <v>0.0124440668152203</v>
+      </c>
+      <c r="F14" s="25" t="n">
+        <v>0.0157961714527061</v>
+      </c>
+      <c r="G14" s="25" t="n">
+        <v>0.0125671949126009</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>0.0156788638647084</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="25" t="n">
+        <v>0.881001012252183</v>
+      </c>
+      <c r="E15" s="25" t="n">
+        <v>0.878571577521585</v>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>0.904833236513886</v>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>0.90148745578695</v>
+      </c>
+      <c r="H15" s="25" t="n">
+        <v>0.894421307937982</v>
+      </c>
+      <c r="J15" s="26" t="n">
+        <v>1813</v>
+      </c>
+      <c r="K15" s="27" t="n">
+        <f aca="false">J15/J$3</f>
+        <v>0.136192908653846</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>0.0157714720419998</v>
+      </c>
+      <c r="E16" s="25" t="n">
+        <v>0.0156737338669392</v>
+      </c>
+      <c r="F16" s="25" t="n">
+        <v>0.0182504233223947</v>
+      </c>
+      <c r="G16" s="25" t="n">
+        <v>0.0197815704430031</v>
+      </c>
+      <c r="H16" s="25" t="n">
+        <v>0.0142960191047387</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="25" t="n">
+        <v>0.754331324357035</v>
+      </c>
+      <c r="E17" s="25" t="n">
+        <v>0.787534505341905</v>
+      </c>
+      <c r="F17" s="25" t="n">
+        <v>0.814331537358637</v>
+      </c>
+      <c r="G17" s="25" t="n">
+        <v>0.806861422444387</v>
+      </c>
+      <c r="H17" s="25" t="n">
+        <v>0.824651617774944</v>
+      </c>
+      <c r="J17" s="26" t="n">
+        <v>942</v>
+      </c>
+      <c r="K17" s="27" t="n">
+        <f aca="false">J17/J$3</f>
+        <v>0.0707632211538462</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="25" t="n">
+        <v>0.0281107003208961</v>
+      </c>
+      <c r="E18" s="25" t="n">
+        <v>0.019093806438179</v>
+      </c>
+      <c r="F18" s="25" t="n">
+        <v>0.0403798869855329</v>
+      </c>
+      <c r="G18" s="25" t="n">
+        <v>0.0159183149199923</v>
+      </c>
+      <c r="H18" s="25" t="n">
+        <v>0.0203145715987631</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>0.71817815042883</v>
+      </c>
+      <c r="E19" s="25" t="n">
+        <v>0.736219748684013</v>
+      </c>
+      <c r="F19" s="25" t="n">
+        <v>0.774899005991433</v>
+      </c>
+      <c r="G19" s="25" t="n">
+        <v>0.784504461859317</v>
+      </c>
+      <c r="H19" s="25" t="n">
+        <v>0.788800151331454</v>
+      </c>
+      <c r="J19" s="30" t="n">
+        <v>685</v>
+      </c>
+      <c r="K19" s="27" t="n">
+        <f aca="false">J19/J$3</f>
+        <v>0.0514573317307692</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="25" t="n">
+        <v>0.039672492766047</v>
+      </c>
+      <c r="E20" s="25" t="n">
+        <v>0.0523771614074895</v>
+      </c>
+      <c r="F20" s="25" t="n">
+        <v>0.019612043665938</v>
+      </c>
+      <c r="G20" s="25" t="n">
+        <v>0.038608558987972</v>
+      </c>
+      <c r="H20" s="25" t="n">
+        <v>0.0360927077510414</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>0.773216362090075</v>
+      </c>
+      <c r="E21" s="25" t="n">
+        <v>0.834367178840247</v>
+      </c>
+      <c r="F21" s="25" t="n">
+        <v>0.82814084528658</v>
+      </c>
+      <c r="G21" s="25" t="n">
+        <v>0.836235064906828</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <v>0.835062346341069</v>
+      </c>
+      <c r="J21" s="26" t="n">
+        <v>557</v>
+      </c>
+      <c r="K21" s="27" t="n">
+        <f aca="false">J21/J$3</f>
+        <v>0.0418419471153846</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="25" t="n">
+        <v>0.037311837827964</v>
+      </c>
+      <c r="E22" s="25" t="n">
+        <v>0.0267282880738389</v>
+      </c>
+      <c r="F22" s="25" t="n">
+        <v>0.035531164639215</v>
+      </c>
+      <c r="G22" s="25" t="n">
+        <v>0.0483800449741391</v>
+      </c>
+      <c r="H22" s="25" t="n">
+        <v>0.0404049907109857</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="25" t="n">
+        <v>0.595069147585752</v>
+      </c>
+      <c r="E23" s="25" t="n">
+        <v>0.667027059414506</v>
+      </c>
+      <c r="F23" s="25" t="n">
+        <v>0.701226638728879</v>
+      </c>
+      <c r="G23" s="25" t="n">
+        <v>0.675837164690719</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <v>0.709311475329272</v>
+      </c>
+      <c r="J23" s="30" t="n">
+        <v>339</v>
+      </c>
+      <c r="K23" s="27" t="n">
+        <f aca="false">J23/J$3</f>
+        <v>0.0254657451923077</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="25" t="n">
+        <v>0.109306057251542</v>
+      </c>
+      <c r="E24" s="25" t="n">
+        <v>0.0845198173918266</v>
+      </c>
+      <c r="F24" s="25" t="n">
+        <v>0.0608009061984327</v>
+      </c>
+      <c r="G24" s="25" t="n">
+        <v>0.0751661695623257</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <v>0.0674566139718708</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20"/>
+      <c r="B25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="25" t="n">
+        <v>0.73551609334696</v>
+      </c>
+      <c r="E25" s="25" t="n">
+        <v>0.71031592063772</v>
+      </c>
+      <c r="F25" s="25" t="n">
+        <v>0.776429552412466</v>
+      </c>
+      <c r="G25" s="25" t="n">
+        <v>0.763375638226158</v>
+      </c>
+      <c r="H25" s="25" t="n">
+        <v>0.784493332979756</v>
+      </c>
+      <c r="J25" s="30" t="n">
+        <v>328</v>
+      </c>
+      <c r="K25" s="27" t="n">
+        <f aca="false">J25/J$3</f>
+        <v>0.0246394230769231</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="25" t="n">
+        <v>0.0465800430308233</v>
+      </c>
+      <c r="E26" s="25" t="n">
+        <v>0.0491044727197004</v>
+      </c>
+      <c r="F26" s="25" t="n">
+        <v>0.0444535081833304</v>
+      </c>
+      <c r="G26" s="25" t="n">
+        <v>0.0539444050900806</v>
+      </c>
+      <c r="H26" s="25" t="n">
+        <v>0.0582750271655154</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20"/>
+      <c r="B27" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="25" t="n">
+        <v>0.512193868509658</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>0.680333368244659</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>0.787683539235989</v>
+      </c>
+      <c r="G27" s="25" t="n">
+        <v>0.713897644712764</v>
+      </c>
+      <c r="H27" s="25" t="n">
+        <v>0.76718514643777</v>
+      </c>
+      <c r="J27" s="30" t="n">
+        <v>140</v>
+      </c>
+      <c r="K27" s="27" t="n">
+        <f aca="false">J27/J$3</f>
+        <v>0.0105168269230769</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="25" t="n">
+        <v>0.152095980764363</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <v>0.110529306875488</v>
+      </c>
+      <c r="F28" s="25" t="n">
+        <v>0.092204180301885</v>
+      </c>
+      <c r="G28" s="25" t="n">
+        <v>0.109981243575724</v>
+      </c>
+      <c r="H28" s="25" t="n">
+        <v>0.109382256207855</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A28"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:H3">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:H5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:H7">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:H9">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:H11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:H13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:H17">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:H19">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:H21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:H23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:H25">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:H27">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF9696"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FF96FF96"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>